--- a/App_test_logs.xlsx
+++ b/App_test_logs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://presagia-my.sharepoint.com/personal/xjia_telperian_com/Documents/Github/MetaToolEntry/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="39" documentId="8_{9CAA7ABF-0C09-4A5D-BF3C-7119ACFA69BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DC5E752E-6106-418E-94D1-3159398972AC}"/>
+  <xr:revisionPtr revIDLastSave="326" documentId="8_{9CAA7ABF-0C09-4A5D-BF3C-7119ACFA69BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8131B110-FA6F-4A39-B248-02A042059F45}"/>
   <bookViews>
-    <workbookView xWindow="1747" yWindow="1053" windowWidth="22053" windowHeight="9980" xr2:uid="{F51B4368-EE33-4982-BF40-B1D646A43378}"/>
+    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13866" xr2:uid="{F51B4368-EE33-4982-BF40-B1D646A43378}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="100">
   <si>
     <t>ID</t>
   </si>
@@ -49,9 +49,6 @@
     <t>Expected Results</t>
   </si>
   <si>
-    <t>Results</t>
-  </si>
-  <si>
     <t>Comments</t>
   </si>
   <si>
@@ -62,9 +59,6 @@
   </si>
   <si>
     <t>Function</t>
-  </si>
-  <si>
-    <t>number of cohorts</t>
   </si>
   <si>
     <t>Steps</t>
@@ -106,13 +100,266 @@
   </si>
   <si>
     <t>IPD Table show the ipd data</t>
+  </si>
+  <si>
+    <t>V1.Results</t>
+  </si>
+  <si>
+    <t>V1.Error</t>
+  </si>
+  <si>
+    <t>output_km_curve</t>
+  </si>
+  <si>
+    <t>output-ipd</t>
+  </si>
+  <si>
+    <t>Subfunction</t>
+  </si>
+  <si>
+    <t>from upload</t>
+  </si>
+  <si>
+    <t>from median</t>
+  </si>
+  <si>
+    <t>from risktable</t>
+  </si>
+  <si>
+    <t>1. ipd type == "upload"
+2. ipd list column has the currect data</t>
+  </si>
+  <si>
+    <t>1. ipd type == "median"
+2. ipd list column has the currect data</t>
+  </si>
+  <si>
+    <t>1. ipd type == "risktable"; 
+1.1 if not, ipd type == "median"
+2. ipd list column has the currect data</t>
+  </si>
+  <si>
+    <t>month</t>
+  </si>
+  <si>
+    <t>week</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>upload</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> figure</t>
+  </si>
+  <si>
+    <t>figure</t>
+  </si>
+  <si>
+    <t>Km data</t>
+  </si>
+  <si>
+    <t>ipd data</t>
+  </si>
+  <si>
+    <t>KM Data(csv)</t>
+  </si>
+  <si>
+    <t>IPD Data</t>
+  </si>
+  <si>
+    <t>1. Figure upload
+2. risk table update</t>
+  </si>
+  <si>
+    <t>1. km data upload
+2. entry table , KM.data column option update</t>
+  </si>
+  <si>
+    <t>1. ipd data upload
+2. entry table , ipd.data column option update</t>
+  </si>
+  <si>
+    <t>TaskID</t>
+  </si>
+  <si>
+    <t>Number of Cohort</t>
+  </si>
+  <si>
+    <t>function</t>
+  </si>
+  <si>
+    <t>empty</t>
+  </si>
+  <si>
+    <t>change number to 0; -1; 100</t>
+  </si>
+  <si>
+    <t>1. 0 will show one row
+2. -1 will show two rows(not break the app is ok)
+3. 100 will show 100 rows</t>
+  </si>
+  <si>
+    <t>input value range and special case</t>
+  </si>
+  <si>
+    <t>leave this field empty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">will remine last status. </t>
+  </si>
+  <si>
+    <t>Unit of time</t>
+  </si>
+  <si>
+    <t>drop down</t>
+  </si>
+  <si>
+    <t>hit drop down</t>
+  </si>
+  <si>
+    <t>select one of the four</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Select month
+2. upload KM Data
+3. Select KM data from the "KM.Data" column
+4. Hit "Save" button
+5. Check Est. Median to see if it is … </t>
+  </si>
+  <si>
+    <t>Repeat 2.2, select week</t>
+  </si>
+  <si>
+    <t>Repeat 2.2, select year</t>
+  </si>
+  <si>
+    <t>Repeat2.2, select day</t>
+  </si>
+  <si>
+    <t>con_module</t>
+  </si>
+  <si>
+    <t>Save</t>
+  </si>
+  <si>
+    <t>Save button</t>
+  </si>
+  <si>
+    <t>1. enter treatment
+2. enter any other fields</t>
+  </si>
+  <si>
+    <t>Input &amp; Number</t>
+  </si>
+  <si>
+    <t>after add input will the number of cohort works well?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Do Taks ID 2.1 ,
+2. Do Taks ID 1 </t>
+  </si>
+  <si>
+    <t>Input in the lower table show be the same as the upper table</t>
+  </si>
+  <si>
+    <t>after entry, result be the same as TaskID 1</t>
+  </si>
+  <si>
+    <t>Save multiple times</t>
+  </si>
+  <si>
+    <t>1. Enter then save
+2. Enter again and save again</t>
+  </si>
+  <si>
+    <t>The same as 2.1</t>
+  </si>
+  <si>
+    <t>column name checking</t>
+  </si>
+  <si>
+    <t>Repeat 2.1 or 2.2</t>
+  </si>
+  <si>
+    <t>Treatment, subgroup and pathology, then other columns must have an prefix "conter1"</t>
+  </si>
+  <si>
+    <t>row number checking</t>
+  </si>
+  <si>
+    <t>Repeat 2.1 or 2.3</t>
+  </si>
+  <si>
+    <t>no blank rows</t>
+  </si>
+  <si>
+    <t>4 TODO</t>
+  </si>
+  <si>
+    <t>entry value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mean , n or other is not number but text </t>
+  </si>
+  <si>
+    <t xml:space="preserve">report error. </t>
+  </si>
+  <si>
+    <t>cat_module</t>
+  </si>
+  <si>
+    <t>the same as task 1</t>
+  </si>
+  <si>
+    <t>level of outcome</t>
+  </si>
+  <si>
+    <t xml:space="preserve">delete outcome levels </t>
+  </si>
+  <si>
+    <t xml:space="preserve">the column number will decrease accordingly, and the ";" doesn't matter.  </t>
+  </si>
+  <si>
+    <t>add outcome lebels</t>
+  </si>
+  <si>
+    <t>1 add "A"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 delete </t>
+  </si>
+  <si>
+    <t xml:space="preserve">add an "A" column , and the ";" doesn't matter.  </t>
+  </si>
+  <si>
+    <t>special characters</t>
+  </si>
+  <si>
+    <t>add "-", " ", "?"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">these column will add to the table </t>
+  </si>
+  <si>
+    <t>add ";", ","</t>
+  </si>
+  <si>
+    <t>these column will not add to the table</t>
+  </si>
+  <si>
+    <t>the same as task 2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -128,13 +375,32 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -149,7 +415,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -158,6 +424,20 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -472,225 +752,983 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{555FF2D0-C6BF-430A-BA33-8F0900951C88}">
-  <dimension ref="A1:J20"/>
+  <dimension ref="A1:N45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="2" max="2" width="6.64453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.29296875" customWidth="1"/>
-    <col min="4" max="4" width="25.234375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="11.52734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="35.29296875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="24.52734375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="16.8203125" customWidth="1"/>
-    <col min="9" max="9" width="9.9375" customWidth="1"/>
-    <col min="10" max="10" width="9.234375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.64453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.8203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.234375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="30" style="2" customWidth="1"/>
+    <col min="7" max="7" width="11.52734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="35.29296875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="44.8203125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="16.8203125" customWidth="1"/>
+    <col min="11" max="12" width="9.9375" customWidth="1"/>
+    <col min="13" max="13" width="9.234375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.29296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="I1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="B2" s="5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" s="5" customFormat="1" ht="43" x14ac:dyDescent="0.5">
+      <c r="B3" s="5">
+        <v>1.2</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="J3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="B4" s="5">
+        <v>1.3</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="J4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K4" t="s">
+        <v>11</v>
+      </c>
+      <c r="L4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" s="5" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
+      <c r="B5" s="5">
+        <v>2.1</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="J5" t="s">
+        <v>13</v>
+      </c>
+      <c r="K5" t="s">
+        <v>11</v>
+      </c>
+      <c r="L5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" s="5" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
+      <c r="B6" s="5">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="J6" t="s">
+        <v>13</v>
+      </c>
+      <c r="K6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" s="5" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
+      <c r="B7" s="5">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="J7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="B8" s="5">
+        <v>2.4</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="J8"/>
+      <c r="K8"/>
+      <c r="L8"/>
+    </row>
+    <row r="9" spans="1:13" s="5" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
+      <c r="B9" s="5">
+        <v>3.1</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="J9" t="s">
+        <v>13</v>
+      </c>
+      <c r="K9" t="s">
+        <v>11</v>
+      </c>
+      <c r="L9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" s="7" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
+      <c r="B10" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="J10" t="s">
+        <v>13</v>
+      </c>
+      <c r="K10" t="s">
+        <v>11</v>
+      </c>
+      <c r="L10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+    </row>
+    <row r="12" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="B12" s="5">
+        <v>11</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E12" t="s">
+        <v>47</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="J12" t="s">
+        <v>13</v>
+      </c>
+      <c r="K12" t="s">
+        <v>11</v>
+      </c>
+      <c r="L12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" s="5" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
+      <c r="B13" s="5">
+        <v>12.1</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="J13" t="s">
+        <v>13</v>
+      </c>
+      <c r="K13" t="s">
+        <v>11</v>
+      </c>
+      <c r="L13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="B14" s="5">
+        <v>12.2</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="J14" t="s">
+        <v>13</v>
+      </c>
+      <c r="K14" t="s">
+        <v>11</v>
+      </c>
+      <c r="L14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="B15" s="5">
+        <v>12.3</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="J15" t="s">
+        <v>13</v>
+      </c>
+      <c r="K15" t="s">
+        <v>11</v>
+      </c>
+      <c r="L15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="B16" s="5">
+        <v>12.4</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="J16" t="s">
+        <v>13</v>
+      </c>
+      <c r="K16" t="s">
+        <v>11</v>
+      </c>
+      <c r="L16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="B17" s="5">
+        <v>13</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="J17" t="s">
+        <v>13</v>
+      </c>
+      <c r="K17" t="s">
+        <v>11</v>
+      </c>
+      <c r="L17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.5">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19">
+        <v>21.1</v>
+      </c>
+      <c r="D19" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" t="s">
+        <v>47</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G19" t="s">
+        <v>14</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J19" t="s">
+        <v>13</v>
+      </c>
+      <c r="K19" t="s">
+        <v>11</v>
+      </c>
+      <c r="L19" t="s">
+        <v>14</v>
+      </c>
+      <c r="N19" s="4"/>
+    </row>
+    <row r="20" spans="1:14" ht="43" x14ac:dyDescent="0.5">
+      <c r="B20">
+        <v>21.2</v>
+      </c>
+      <c r="D20" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20" t="s">
+        <v>47</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G20" t="s">
+        <v>14</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="N20" s="4"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.5">
+      <c r="B21">
+        <v>21.3</v>
+      </c>
+      <c r="D21" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" t="s">
+        <v>47</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G21" t="s">
+        <v>14</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="N21" s="4"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.5">
+      <c r="B22">
+        <v>22.1</v>
+      </c>
+      <c r="D22" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" t="s">
+        <v>55</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G22" t="s">
+        <v>14</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="N22" s="4"/>
+    </row>
+    <row r="23" spans="1:14" ht="86" x14ac:dyDescent="0.5">
+      <c r="B23">
+        <v>22.2</v>
+      </c>
+      <c r="D23" t="s">
+        <v>6</v>
+      </c>
+      <c r="E23" t="s">
+        <v>55</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G23" t="s">
+        <v>14</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="N23" s="4"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.5">
+      <c r="B24">
+        <v>22.3</v>
+      </c>
+      <c r="D24" t="s">
+        <v>6</v>
+      </c>
+      <c r="E24" t="s">
+        <v>55</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G24" t="s">
+        <v>14</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="N24" s="4"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.5">
+      <c r="B25">
+        <v>22.4</v>
+      </c>
+      <c r="D25" t="s">
+        <v>6</v>
+      </c>
+      <c r="E25" t="s">
+        <v>55</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G25" t="s">
+        <v>14</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="N25" s="4"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.5">
+      <c r="B26">
+        <v>22.5</v>
+      </c>
+      <c r="D26" t="s">
+        <v>6</v>
+      </c>
+      <c r="E26" t="s">
+        <v>55</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G26" t="s">
+        <v>14</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="N26" s="4"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.5">
+      <c r="E27"/>
+      <c r="G27" t="s">
+        <v>14</v>
+      </c>
+      <c r="N27" s="4"/>
+    </row>
+    <row r="28" spans="1:14" ht="28.7" x14ac:dyDescent="0.5">
+      <c r="A28">
         <v>2</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="D28" t="s">
+        <v>6</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G28" t="s">
+        <v>14</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J28" t="s">
+        <v>13</v>
+      </c>
+      <c r="K28" t="s">
+        <v>11</v>
+      </c>
+      <c r="L28" t="s">
+        <v>14</v>
+      </c>
+      <c r="N28" s="4"/>
+    </row>
+    <row r="29" spans="1:14" ht="28.7" x14ac:dyDescent="0.5">
+      <c r="A29">
+        <v>3</v>
+      </c>
+      <c r="D29" t="s">
+        <v>6</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G29" t="s">
+        <v>14</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J29" t="s">
+        <v>13</v>
+      </c>
+      <c r="K29" t="s">
+        <v>11</v>
+      </c>
+      <c r="L29" t="s">
+        <v>14</v>
+      </c>
+      <c r="N29" s="4"/>
+    </row>
+    <row r="30" spans="1:14" ht="28.7" x14ac:dyDescent="0.5">
+      <c r="A30">
+        <v>4</v>
+      </c>
+      <c r="D30" t="s">
+        <v>6</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G30" t="s">
+        <v>38</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" ht="43" x14ac:dyDescent="0.5">
+      <c r="A31">
+        <v>5</v>
+      </c>
+      <c r="D31" t="s">
+        <v>6</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G31" t="s">
+        <v>39</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" ht="43" x14ac:dyDescent="0.5">
+      <c r="A32">
+        <v>6</v>
+      </c>
+      <c r="D32" t="s">
+        <v>6</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G32" t="s">
+        <v>40</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A33">
+        <v>7</v>
+      </c>
+      <c r="D33" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A34">
+        <v>8</v>
+      </c>
+      <c r="D34" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A35">
+        <v>9</v>
+      </c>
+      <c r="D35" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A36">
         <v>10</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="28.7" x14ac:dyDescent="0.5">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="D36" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A37">
+        <v>11</v>
+      </c>
+      <c r="D37" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A38">
+        <v>12</v>
+      </c>
+      <c r="D38" t="s">
+        <v>6</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="43" x14ac:dyDescent="0.5">
+      <c r="A39">
+        <v>13</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="43" x14ac:dyDescent="0.5">
+      <c r="A40">
+        <v>14</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="71.7" x14ac:dyDescent="0.5">
+      <c r="A41">
+        <v>15</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A42">
         <v>16</v>
       </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="28.7" x14ac:dyDescent="0.5">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="2" t="s">
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A43">
         <v>17</v>
       </c>
-      <c r="E3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" s="2" t="s">
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A44">
         <v>18</v>
       </c>
-      <c r="H3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="28.7" x14ac:dyDescent="0.5">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="2" t="s">
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A45">
         <v>19</v>
       </c>
-      <c r="E4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A8">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A9">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A10">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A11">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A12">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A13">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A14">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A15">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A16">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A17">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A18">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A19">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A20">
-        <v>19</v>
-      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/App_test_logs.xlsx
+++ b/App_test_logs.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://presagia-my.sharepoint.com/personal/xjia_telperian_com/Documents/Github/MetaToolEntry/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Preadmin\OneDrive - Telperian\Github\MetaToolEntry\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="326" documentId="8_{9CAA7ABF-0C09-4A5D-BF3C-7119ACFA69BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8131B110-FA6F-4A39-B248-02A042059F45}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{145FF1DB-C5BA-48E2-B1FC-61CED62AC782}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13866" xr2:uid="{F51B4368-EE33-4982-BF40-B1D646A43378}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{F51B4368-EE33-4982-BF40-B1D646A43378}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="174">
   <si>
     <t>ID</t>
   </si>
@@ -99,46 +99,15 @@
 2. Hit "Save" button</t>
   </si>
   <si>
-    <t>IPD Table show the ipd data</t>
-  </si>
-  <si>
     <t>V1.Results</t>
   </si>
   <si>
     <t>V1.Error</t>
   </si>
   <si>
-    <t>output_km_curve</t>
-  </si>
-  <si>
-    <t>output-ipd</t>
-  </si>
-  <si>
     <t>Subfunction</t>
   </si>
   <si>
-    <t>from upload</t>
-  </si>
-  <si>
-    <t>from median</t>
-  </si>
-  <si>
-    <t>from risktable</t>
-  </si>
-  <si>
-    <t>1. ipd type == "upload"
-2. ipd list column has the currect data</t>
-  </si>
-  <si>
-    <t>1. ipd type == "median"
-2. ipd list column has the currect data</t>
-  </si>
-  <si>
-    <t>1. ipd type == "risktable"; 
-1.1 if not, ipd type == "median"
-2. ipd list column has the currect data</t>
-  </si>
-  <si>
     <t>month</t>
   </si>
   <si>
@@ -154,9 +123,6 @@
     <t>upload</t>
   </si>
   <si>
-    <t xml:space="preserve"> figure</t>
-  </si>
-  <si>
     <t>figure</t>
   </si>
   <si>
@@ -170,14 +136,6 @@
   </si>
   <si>
     <t>IPD Data</t>
-  </si>
-  <si>
-    <t>1. Figure upload
-2. risk table update</t>
-  </si>
-  <si>
-    <t>1. km data upload
-2. entry table , KM.data column option update</t>
   </si>
   <si>
     <t>1. ipd data upload
@@ -225,141 +183,434 @@
     <t>select one of the four</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Select month
+    <t>con_module</t>
+  </si>
+  <si>
+    <t>Save</t>
+  </si>
+  <si>
+    <t>Save button</t>
+  </si>
+  <si>
+    <t>1. enter treatment
+2. enter any other fields</t>
+  </si>
+  <si>
+    <t>Input &amp; Number</t>
+  </si>
+  <si>
+    <t>after add input will the number of cohort works well?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Do Taks ID 2.1 ,
+2. Do Taks ID 1 </t>
+  </si>
+  <si>
+    <t>Input in the lower table show be the same as the upper table</t>
+  </si>
+  <si>
+    <t>after entry, result be the same as TaskID 1</t>
+  </si>
+  <si>
+    <t>Save multiple times</t>
+  </si>
+  <si>
+    <t>1. Enter then save
+2. Enter again and save again</t>
+  </si>
+  <si>
+    <t>The same as 2.1</t>
+  </si>
+  <si>
+    <t>column name checking</t>
+  </si>
+  <si>
+    <t>Repeat 2.1 or 2.2</t>
+  </si>
+  <si>
+    <t>Treatment, subgroup and pathology, then other columns must have an prefix "conter1"</t>
+  </si>
+  <si>
+    <t>row number checking</t>
+  </si>
+  <si>
+    <t>Repeat 2.1 or 2.3</t>
+  </si>
+  <si>
+    <t>no blank rows</t>
+  </si>
+  <si>
+    <t>4 TODO</t>
+  </si>
+  <si>
+    <t>entry value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mean , n or other is not number but text </t>
+  </si>
+  <si>
+    <t xml:space="preserve">report error. </t>
+  </si>
+  <si>
+    <t>cat_module</t>
+  </si>
+  <si>
+    <t>the same as task 1</t>
+  </si>
+  <si>
+    <t>level of outcome</t>
+  </si>
+  <si>
+    <t xml:space="preserve">delete outcome levels </t>
+  </si>
+  <si>
+    <t xml:space="preserve">the column number will decrease accordingly, and the ";" doesn't matter.  </t>
+  </si>
+  <si>
+    <t>add outcome lebels</t>
+  </si>
+  <si>
+    <t>1 add "A"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 delete </t>
+  </si>
+  <si>
+    <t xml:space="preserve">add an "A" column , and the ";" doesn't matter.  </t>
+  </si>
+  <si>
+    <t>special characters</t>
+  </si>
+  <si>
+    <t>add "-", " ", "?"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">these column will add to the table </t>
+  </si>
+  <si>
+    <t>add ";", ","</t>
+  </si>
+  <si>
+    <t>these column will not add to the table</t>
+  </si>
+  <si>
+    <t>the same as task 2</t>
+  </si>
+  <si>
+    <t>The same as 23.1</t>
+  </si>
+  <si>
+    <t>Repeat23.1 or 23.2</t>
+  </si>
+  <si>
+    <t>Repeat 23.1 or 23.3</t>
+  </si>
+  <si>
+    <t>est median from Km.curve upload</t>
+  </si>
+  <si>
+    <t>1. est.median column update
+2. upload figure update</t>
+  </si>
+  <si>
+    <t>check ipd type</t>
+  </si>
+  <si>
+    <t>1.upload km_curve
+2. select from the KM.data column
+3. hit save</t>
+  </si>
+  <si>
+    <t>1.upload ipd_curve
+2. select from the KM.data column
+3. hit save</t>
+  </si>
+  <si>
+    <t>1. in the lower table, ipd type shows upload</t>
+  </si>
+  <si>
+    <t>1. IPD Table show the ipd data
+2. the lower table shows ipd_type = median</t>
+  </si>
+  <si>
+    <t>ipd</t>
+  </si>
+  <si>
+    <t>ipd from uopload ( the same as 23.7)</t>
+  </si>
+  <si>
+    <t>Repeat 22.2, select week</t>
+  </si>
+  <si>
+    <t>Repeat 22.2, select year</t>
+  </si>
+  <si>
+    <t>Repeat22.2, select day</t>
+  </si>
+  <si>
+    <t>ipd from risk table- showup</t>
+  </si>
+  <si>
+    <t>ipd from risk table- save ipd data</t>
+  </si>
+  <si>
+    <t>risk table shows up</t>
+  </si>
+  <si>
+    <t>1. IPD Table show the ipd data
+2. the lower table shows ipd_type = risktable</t>
+  </si>
+  <si>
+    <t>ipd from risk table- wrong risk table</t>
+  </si>
+  <si>
+    <t>1. upload figure
+2. modify risk table in the right way
+3. Hit "Save IPD Data" button</t>
+  </si>
+  <si>
+    <t>1. upload figure
+2. modify risk table  (1) - number of time point and number of risk doesn't match; 2) delete time , 3) text in numbers, 4)
+3. Hit "Save IPD Data" button</t>
+  </si>
+  <si>
+    <t>1. upload example figure</t>
+  </si>
+  <si>
+    <t>ipd from risk table- showup- wrong</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. upload unreadable survival figure </t>
+  </si>
+  <si>
+    <t>ipd from risk table - showup-wrong2</t>
+  </si>
+  <si>
+    <t>1. upload non-survival figure</t>
+  </si>
+  <si>
+    <t>1.upload
+2. re - upload</t>
+  </si>
+  <si>
+    <t>figure - re -upload</t>
+  </si>
+  <si>
+    <t>KM Data(csv) - re - upload</t>
+  </si>
+  <si>
+    <t>1. km data upload 
+2. entry table , KM.data column option update</t>
+  </si>
+  <si>
+    <t>1. km data upload one file
+2.  KM.data column has one dropdown option
+3. km data upload two file
+4. KM.data column has two dropdown option</t>
+  </si>
+  <si>
+    <t>IPD Data - re - upload</t>
+  </si>
+  <si>
+    <t>1. ipd data upload one file
+2.  ipd.data column has one dropdown option
+3. ipd data upload two file
+4. ipd.data column has two dropdown option</t>
+  </si>
+  <si>
+    <t>the IPD Table no response - app running</t>
+  </si>
+  <si>
+    <t>5 TODO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">try everything to crusk it </t>
+  </si>
+  <si>
+    <t>15 TODO</t>
+  </si>
+  <si>
+    <t>0 TODO</t>
+  </si>
+  <si>
+    <t>what else can make it crush</t>
+  </si>
+  <si>
+    <t>1. Figure upload
+2. risk table update
+3. figure shows up</t>
+  </si>
+  <si>
+    <t>1. Figure upload
+2. risk table and figure  shows up
+3. upload an different figure 
+4. risk table and figure update</t>
+  </si>
+  <si>
+    <t>blank risk table shows up</t>
+  </si>
+  <si>
+    <t>the figure shows up and blank risk table shows up</t>
+  </si>
+  <si>
+    <t>app tab 1</t>
+  </si>
+  <si>
+    <t>app tab2</t>
+  </si>
+  <si>
+    <t>input and duckdb</t>
+  </si>
+  <si>
+    <t>1. Select month
 2. upload KM Data
 3. Select KM data from the "KM.Data" column
-4. Hit "Save" button
-5. Check Est. Median to see if it is … </t>
-  </si>
-  <si>
-    <t>Repeat 2.2, select week</t>
-  </si>
-  <si>
-    <t>Repeat 2.2, select year</t>
-  </si>
-  <si>
-    <t>Repeat2.2, select day</t>
-  </si>
-  <si>
-    <t>con_module</t>
-  </si>
-  <si>
-    <t>Save</t>
-  </si>
-  <si>
-    <t>Save button</t>
-  </si>
-  <si>
-    <t>1. enter treatment
-2. enter any other fields</t>
-  </si>
-  <si>
-    <t>Input &amp; Number</t>
-  </si>
-  <si>
-    <t>after add input will the number of cohort works well?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Do Taks ID 2.1 ,
-2. Do Taks ID 1 </t>
-  </si>
-  <si>
-    <t>Input in the lower table show be the same as the upper table</t>
-  </si>
-  <si>
-    <t>after entry, result be the same as TaskID 1</t>
-  </si>
-  <si>
-    <t>Save multiple times</t>
-  </si>
-  <si>
-    <t>1. Enter then save
-2. Enter again and save again</t>
-  </si>
-  <si>
-    <t>The same as 2.1</t>
-  </si>
-  <si>
-    <t>column name checking</t>
-  </si>
-  <si>
-    <t>Repeat 2.1 or 2.2</t>
-  </si>
-  <si>
-    <t>Treatment, subgroup and pathology, then other columns must have an prefix "conter1"</t>
-  </si>
-  <si>
-    <t>row number checking</t>
-  </si>
-  <si>
-    <t>Repeat 2.1 or 2.3</t>
-  </si>
-  <si>
-    <t>no blank rows</t>
-  </si>
-  <si>
-    <t>4 TODO</t>
-  </si>
-  <si>
-    <t>entry value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mean , n or other is not number but text </t>
-  </si>
-  <si>
-    <t xml:space="preserve">report error. </t>
-  </si>
-  <si>
-    <t>cat_module</t>
-  </si>
-  <si>
-    <t>the same as task 1</t>
-  </si>
-  <si>
-    <t>level of outcome</t>
-  </si>
-  <si>
-    <t xml:space="preserve">delete outcome levels </t>
-  </si>
-  <si>
-    <t xml:space="preserve">the column number will decrease accordingly, and the ";" doesn't matter.  </t>
-  </si>
-  <si>
-    <t>add outcome lebels</t>
-  </si>
-  <si>
-    <t>1 add "A"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 delete </t>
-  </si>
-  <si>
-    <t xml:space="preserve">add an "A" column , and the ";" doesn't matter.  </t>
-  </si>
-  <si>
-    <t>special characters</t>
-  </si>
-  <si>
-    <t>add "-", " ", "?"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">these column will add to the table </t>
-  </si>
-  <si>
-    <t>add ";", ","</t>
-  </si>
-  <si>
-    <t>these column will not add to the table</t>
-  </si>
-  <si>
-    <t>the same as task 2</t>
+4. Hit "Save" button</t>
+  </si>
+  <si>
+    <t>add outcome</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hit "add outcome" at any row </t>
+  </si>
+  <si>
+    <t>1. go the the second tab
+2. showthe current  nct number and paper title</t>
+  </si>
+  <si>
+    <t>upload pdf</t>
+  </si>
+  <si>
+    <t>pdf</t>
+  </si>
+  <si>
+    <t>nothing happened with the app, but the database show have the pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. upload pdf
+2. check duckdb </t>
+  </si>
+  <si>
+    <t>pdf save in the right format</t>
+  </si>
+  <si>
+    <t>cancer type</t>
+  </si>
+  <si>
+    <t>phase</t>
+  </si>
+  <si>
+    <t>treatment line</t>
+  </si>
+  <si>
+    <t>wrong input</t>
+  </si>
+  <si>
+    <t xml:space="preserve">currect input </t>
+  </si>
+  <si>
+    <t>type in text, number, special characters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TODO: add a dropdown list,  what's wrong with the UI. </t>
+  </si>
+  <si>
+    <t>TODO:  make a dropdown list  only, any other format shound't allowed</t>
+  </si>
+  <si>
+    <t>TODO: make 1: 4 line of treatment, dropdown, any other format shouldn't allowed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If cancer type, phase, line of treatment empty. </t>
+  </si>
+  <si>
+    <t>publications</t>
+  </si>
+  <si>
+    <t>input fileds</t>
+  </si>
+  <si>
+    <t>input text , no format required</t>
+  </si>
+  <si>
+    <t>publication</t>
+  </si>
+  <si>
+    <t>check if pdf was saved currectly</t>
+  </si>
+  <si>
+    <t>check if publication was saved currectly</t>
+  </si>
+  <si>
+    <t>1. type in publication info
+2. check duckdb</t>
+  </si>
+  <si>
+    <t>year and author in the right format</t>
+  </si>
+  <si>
+    <t xml:space="preserve">publication </t>
+  </si>
+  <si>
+    <t>input year</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TODO: save year as calendar drop down. </t>
+  </si>
+  <si>
+    <t>data input</t>
+  </si>
+  <si>
+    <t>input os</t>
+  </si>
+  <si>
+    <t>ipd from median - when median not exist</t>
+  </si>
+  <si>
+    <t>ipd from median - when N not exist</t>
+  </si>
+  <si>
+    <t>ipd from risk table  - when N or medien doesn't exist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ipd </t>
+  </si>
+  <si>
+    <t>ipd from risk table - when excel doesn't exist</t>
+  </si>
+  <si>
+    <t>multiple ttf outcomes</t>
+  </si>
+  <si>
+    <t>multiple different outcomes</t>
+  </si>
+  <si>
+    <t>1. input os in any field. 
+2. input pfs in any field
+3. save results
+4. check duckdb</t>
+  </si>
+  <si>
+    <t>1. input os
+2. input RESIST
+3. save results
+4. check duckdb</t>
+  </si>
+  <si>
+    <t>1. input os in any field. 
+2. save results
+3. check duckdb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. go back to tab 1
+2. duckdb works ok </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -384,6 +635,13 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B0F0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -415,7 +673,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -438,6 +696,22 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -752,33 +1026,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{555FF2D0-C6BF-430A-BA33-8F0900951C88}">
-  <dimension ref="A1:N45"/>
+  <dimension ref="A1:N80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G74" sqref="G74"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="6.64453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.8203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.234375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="6.6328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.90625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.26953125" style="2" customWidth="1"/>
     <col min="6" max="6" width="30" style="2" customWidth="1"/>
-    <col min="7" max="7" width="11.52734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="35.29296875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="44.8203125" style="2" customWidth="1"/>
-    <col min="10" max="10" width="16.8203125" customWidth="1"/>
-    <col min="11" max="12" width="9.9375" customWidth="1"/>
-    <col min="13" max="13" width="9.234375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.29296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="35.26953125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="44.81640625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="16.81640625" customWidth="1"/>
+    <col min="11" max="12" width="9.90625" customWidth="1"/>
+    <col min="13" max="14" width="9.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>5</v>
@@ -790,7 +1064,7 @@
         <v>7</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>2</v>
@@ -805,27 +1079,27 @@
         <v>12</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B2" s="5">
         <v>1.1000000000000001</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="E2" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="G2" t="s">
         <v>14</v>
@@ -846,27 +1120,27 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="5" customFormat="1" ht="43" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:13" s="5" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B3" s="5">
         <v>1.2</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="E3" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="G3" t="s">
         <v>14</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="J3" t="s">
         <v>13</v>
@@ -878,27 +1152,27 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B4" s="5">
         <v>1.3</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="E4" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="G4" t="s">
         <v>14</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="J4" t="s">
         <v>13</v>
@@ -910,27 +1184,27 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="5" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:13" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="B5" s="5">
         <v>2.1</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="G5" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="J5" t="s">
         <v>13</v>
@@ -942,27 +1216,27 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="5" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:13" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="B6" s="5">
         <v>2.2000000000000002</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="G6" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="J6" t="s">
         <v>13</v>
@@ -974,27 +1248,27 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:13" s="5" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:13" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="B7" s="5">
         <v>2.2999999999999998</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="G7" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="J7" t="s">
         <v>13</v>
@@ -1006,53 +1280,53 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B8" s="5">
         <v>2.4</v>
       </c>
       <c r="D8" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="I8" s="6" t="s">
         <v>64</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>80</v>
       </c>
       <c r="J8"/>
       <c r="K8"/>
       <c r="L8"/>
     </row>
-    <row r="9" spans="1:13" s="5" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:13" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="B9" s="5">
         <v>3.1</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="G9" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="J9" t="s">
         <v>13</v>
@@ -1064,25 +1338,25 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:13" s="7" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:13" s="7" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="B10" s="7" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="G10" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H10" s="8"/>
       <c r="I10" s="8" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="J10" t="s">
         <v>13</v>
@@ -1094,68 +1368,54 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="11"/>
-    </row>
-    <row r="12" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="B12" s="5">
+    <row r="11" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="F11" s="8"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11"/>
+      <c r="K11"/>
+      <c r="L11"/>
+    </row>
+    <row r="12" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+    </row>
+    <row r="13" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="5">
         <v>11</v>
       </c>
-      <c r="D12" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="E12" t="s">
-        <v>47</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="I12" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="J12" t="s">
-        <v>13</v>
-      </c>
-      <c r="K12" t="s">
-        <v>11</v>
-      </c>
-      <c r="L12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" s="5" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
-      <c r="B13" s="5">
-        <v>12.1</v>
-      </c>
       <c r="D13" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>87</v>
+        <v>69</v>
+      </c>
+      <c r="E13" t="s">
+        <v>35</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="G13" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="J13" t="s">
         <v>13</v>
@@ -1167,27 +1427,27 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:13" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="B14" s="5">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="G14" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="J14" t="s">
         <v>13</v>
@@ -1199,27 +1459,27 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B15" s="5">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="G15" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="J15" t="s">
         <v>13</v>
@@ -1231,27 +1491,27 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B16" s="5">
-        <v>12.4</v>
+        <v>12.3</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="G16" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="J16" t="s">
         <v>13</v>
@@ -1263,27 +1523,27 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="17" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B17" s="5">
-        <v>13</v>
+        <v>12.4</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="G17" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="J17" t="s">
         <v>13</v>
@@ -1295,436 +1555,1105 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.5">
-      <c r="A19">
-        <v>1</v>
-      </c>
-      <c r="B19">
+    <row r="18" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="5">
+        <v>13</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="I18" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="J18" t="s">
+        <v>13</v>
+      </c>
+      <c r="K18" t="s">
+        <v>11</v>
+      </c>
+      <c r="L18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="F19" s="8"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19"/>
+      <c r="K19"/>
+      <c r="L19"/>
+    </row>
+    <row r="20" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+    </row>
+    <row r="21" spans="2:14" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="F21" s="18"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="18"/>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B22">
         <v>21.1</v>
       </c>
-      <c r="D19" t="s">
-        <v>6</v>
-      </c>
-      <c r="E19" t="s">
-        <v>47</v>
-      </c>
-      <c r="F19" s="2" t="s">
+      <c r="D22" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" t="s">
+        <v>35</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G22" t="s">
+        <v>14</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J22" t="s">
+        <v>13</v>
+      </c>
+      <c r="K22" t="s">
+        <v>11</v>
+      </c>
+      <c r="L22" t="s">
+        <v>14</v>
+      </c>
+      <c r="N22" s="4"/>
+    </row>
+    <row r="23" spans="2:14" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B23">
+        <v>21.2</v>
+      </c>
+      <c r="D23" t="s">
+        <v>6</v>
+      </c>
+      <c r="E23" t="s">
+        <v>35</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G23" t="s">
+        <v>14</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J23" t="s">
+        <v>13</v>
+      </c>
+      <c r="K23" t="s">
+        <v>11</v>
+      </c>
+      <c r="L23" t="s">
+        <v>14</v>
+      </c>
+      <c r="N23" s="4"/>
+    </row>
+    <row r="24" spans="2:14" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B24">
+        <v>21.3</v>
+      </c>
+      <c r="D24" t="s">
+        <v>6</v>
+      </c>
+      <c r="E24" t="s">
+        <v>35</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G24" t="s">
+        <v>14</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J24" t="s">
+        <v>13</v>
+      </c>
+      <c r="K24" t="s">
+        <v>11</v>
+      </c>
+      <c r="L24" t="s">
+        <v>14</v>
+      </c>
+      <c r="N24" s="4"/>
+    </row>
+    <row r="25" spans="2:14" s="12" customFormat="1" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="12">
+        <v>22.1</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F25" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="G25" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="H25" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="I25" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="N25" s="14"/>
+    </row>
+    <row r="26" spans="2:14" s="12" customFormat="1" ht="62" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="12">
+        <v>22.2</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E26" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F26" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="G26" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="H26" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="I26" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="N26" s="14"/>
+    </row>
+    <row r="27" spans="2:14" s="12" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="12">
+        <v>22.3</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E27" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F27" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="G27" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="H27" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="I27" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="N27" s="14"/>
+    </row>
+    <row r="28" spans="2:14" s="12" customFormat="1" ht="67.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="12">
+        <v>22.4</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E28" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F28" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="G28" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="H28" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="I28" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="N28" s="14"/>
+    </row>
+    <row r="29" spans="2:14" s="12" customFormat="1" ht="31.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B29" s="12">
+        <v>22.5</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E29" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F29" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="G29" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="H29" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="I29" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="N29" s="14"/>
+    </row>
+    <row r="30" spans="2:14" s="12" customFormat="1" ht="57.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B30" s="12">
+        <v>22.6</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E30" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F30" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="G30" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="H30" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="I30" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="N30" s="14"/>
+    </row>
+    <row r="31" spans="2:14" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="B31" s="5">
+        <v>23.1</v>
+      </c>
+      <c r="D31" t="s">
+        <v>6</v>
+      </c>
+      <c r="E31" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="G19" t="s">
-        <v>14</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J19" t="s">
+      <c r="F31" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H31" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="I31" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="J31" t="s">
         <v>13</v>
       </c>
-      <c r="K19" t="s">
+      <c r="K31" t="s">
         <v>11</v>
       </c>
-      <c r="L19" t="s">
-        <v>14</v>
-      </c>
-      <c r="N19" s="4"/>
-    </row>
-    <row r="20" spans="1:14" ht="43" x14ac:dyDescent="0.5">
-      <c r="B20">
-        <v>21.2</v>
-      </c>
-      <c r="D20" t="s">
-        <v>6</v>
-      </c>
-      <c r="E20" t="s">
-        <v>47</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="G20" t="s">
-        <v>14</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="N20" s="4"/>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.5">
-      <c r="B21">
-        <v>21.3</v>
-      </c>
-      <c r="D21" t="s">
-        <v>6</v>
-      </c>
-      <c r="E21" t="s">
-        <v>47</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="G21" t="s">
-        <v>14</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="N21" s="4"/>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.5">
-      <c r="B22">
-        <v>22.1</v>
-      </c>
-      <c r="D22" t="s">
-        <v>6</v>
-      </c>
-      <c r="E22" t="s">
-        <v>55</v>
-      </c>
-      <c r="F22" s="2" t="s">
+      <c r="L31" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="B32" s="5">
+        <v>23.2</v>
+      </c>
+      <c r="D32" t="s">
+        <v>6</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="F32" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="G22" t="s">
-        <v>14</v>
-      </c>
-      <c r="H22" s="2" t="s">
+      <c r="G32" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H32" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="I22" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="N22" s="4"/>
-    </row>
-    <row r="23" spans="1:14" ht="86" x14ac:dyDescent="0.5">
-      <c r="B23">
-        <v>22.2</v>
-      </c>
-      <c r="D23" t="s">
-        <v>6</v>
-      </c>
-      <c r="E23" t="s">
-        <v>55</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G23" t="s">
-        <v>14</v>
-      </c>
-      <c r="H23" s="2" t="s">
+      <c r="I32" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="J32" t="s">
+        <v>13</v>
+      </c>
+      <c r="K32" t="s">
+        <v>11</v>
+      </c>
+      <c r="L32" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="B33" s="5">
+        <v>23.3</v>
+      </c>
+      <c r="D33" t="s">
+        <v>6</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="F33" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="N23" s="4"/>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.5">
-      <c r="B24">
-        <v>22.3</v>
-      </c>
-      <c r="D24" t="s">
-        <v>6</v>
-      </c>
-      <c r="E24" t="s">
-        <v>55</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G24" t="s">
-        <v>14</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="N24" s="4"/>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.5">
-      <c r="B25">
-        <v>22.4</v>
-      </c>
-      <c r="D25" t="s">
-        <v>6</v>
-      </c>
-      <c r="E25" t="s">
-        <v>55</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G25" t="s">
-        <v>14</v>
-      </c>
-      <c r="H25" s="2" t="s">
+      <c r="G33" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H33" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="I33" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="N25" s="4"/>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.5">
-      <c r="B26">
-        <v>22.5</v>
-      </c>
-      <c r="D26" t="s">
-        <v>6</v>
-      </c>
-      <c r="E26" t="s">
-        <v>55</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="G26" t="s">
-        <v>14</v>
-      </c>
-      <c r="H26" s="2" t="s">
+      <c r="J33" t="s">
+        <v>13</v>
+      </c>
+      <c r="K33" t="s">
+        <v>11</v>
+      </c>
+      <c r="L33" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B34" s="5">
+        <v>23.4</v>
+      </c>
+      <c r="D34" t="s">
+        <v>6</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="F34" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="N26" s="4"/>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.5">
-      <c r="E27"/>
-      <c r="G27" t="s">
-        <v>14</v>
-      </c>
-      <c r="N27" s="4"/>
-    </row>
-    <row r="28" spans="1:14" ht="28.7" x14ac:dyDescent="0.5">
-      <c r="A28">
-        <v>2</v>
-      </c>
-      <c r="D28" t="s">
-        <v>6</v>
-      </c>
-      <c r="E28" s="2" t="s">
+      <c r="G34" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H34" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="I34" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="J34" t="s">
+        <v>13</v>
+      </c>
+      <c r="K34" t="s">
+        <v>11</v>
+      </c>
+      <c r="L34" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" ht="25.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B35" s="5">
+        <v>23.5</v>
+      </c>
+      <c r="D35" t="s">
+        <v>6</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F35" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G28" t="s">
-        <v>14</v>
-      </c>
-      <c r="H28" s="2" t="s">
+      <c r="G35" t="s">
+        <v>14</v>
+      </c>
+      <c r="H35" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I28" s="2" t="s">
+      <c r="I35" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J28" t="s">
+      <c r="J35" t="s">
         <v>13</v>
       </c>
-      <c r="K28" t="s">
+      <c r="K35" t="s">
         <v>11</v>
       </c>
-      <c r="L28" t="s">
-        <v>14</v>
-      </c>
-      <c r="N28" s="4"/>
-    </row>
-    <row r="29" spans="1:14" ht="28.7" x14ac:dyDescent="0.5">
-      <c r="A29">
-        <v>3</v>
-      </c>
-      <c r="D29" t="s">
-        <v>6</v>
-      </c>
-      <c r="E29" s="2" t="s">
+      <c r="L35" t="s">
+        <v>14</v>
+      </c>
+      <c r="N35" s="4"/>
+    </row>
+    <row r="36" spans="2:14" ht="49" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B36" s="5">
+        <v>23.6</v>
+      </c>
+      <c r="D36" t="s">
+        <v>6</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="G36" t="s">
+        <v>29</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="N36" s="4"/>
+    </row>
+    <row r="37" spans="2:14" ht="44.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B37" s="5">
+        <v>23.7</v>
+      </c>
+      <c r="D37" t="s">
+        <v>6</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="G37" t="s">
+        <v>30</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="N37" s="4"/>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="E38"/>
+      <c r="N38" s="4"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="E39"/>
+      <c r="N39" s="4"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B40">
+        <v>24.1</v>
+      </c>
+      <c r="D40" t="s">
+        <v>6</v>
+      </c>
+      <c r="E40" t="s">
+        <v>43</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G40" t="s">
+        <v>14</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="N40" s="4"/>
+    </row>
+    <row r="41" spans="2:14" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="B41">
+        <v>24.2</v>
+      </c>
+      <c r="D41" t="s">
+        <v>6</v>
+      </c>
+      <c r="E41" t="s">
+        <v>43</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G41" t="s">
+        <v>14</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="N41" s="4"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B42">
+        <v>24.3</v>
+      </c>
+      <c r="D42" t="s">
+        <v>6</v>
+      </c>
+      <c r="E42" t="s">
+        <v>43</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G42" t="s">
+        <v>14</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="N42" s="4"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B43">
+        <v>24.4</v>
+      </c>
+      <c r="D43" t="s">
+        <v>6</v>
+      </c>
+      <c r="E43" t="s">
+        <v>43</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G43" t="s">
+        <v>14</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="N43" s="4"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B44">
+        <v>24.5</v>
+      </c>
+      <c r="D44" t="s">
+        <v>6</v>
+      </c>
+      <c r="E44" t="s">
+        <v>43</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G44" t="s">
+        <v>14</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="N44" s="4"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="E45"/>
+      <c r="G45" t="s">
+        <v>14</v>
+      </c>
+      <c r="N45" s="4"/>
+    </row>
+    <row r="46" spans="2:14" ht="29" x14ac:dyDescent="0.35">
+      <c r="B46">
+        <v>25.1</v>
+      </c>
+      <c r="D46" t="s">
+        <v>6</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="N46" s="4"/>
+    </row>
+    <row r="47" spans="2:14" ht="29" x14ac:dyDescent="0.35">
+      <c r="B47">
+        <v>25.2</v>
+      </c>
+      <c r="D47" t="s">
+        <v>6</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F47" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G29" t="s">
-        <v>14</v>
-      </c>
-      <c r="H29" s="2" t="s">
+      <c r="G47" t="s">
+        <v>14</v>
+      </c>
+      <c r="H47" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I29" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J29" t="s">
+      <c r="I47" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="J47" t="s">
         <v>13</v>
       </c>
-      <c r="K29" t="s">
+      <c r="K47" t="s">
         <v>11</v>
       </c>
-      <c r="L29" t="s">
-        <v>14</v>
-      </c>
-      <c r="N29" s="4"/>
-    </row>
-    <row r="30" spans="1:14" ht="28.7" x14ac:dyDescent="0.5">
-      <c r="A30">
-        <v>4</v>
-      </c>
-      <c r="D30" t="s">
-        <v>6</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G30" t="s">
-        <v>38</v>
-      </c>
-      <c r="I30" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" ht="43" x14ac:dyDescent="0.5">
-      <c r="A31">
-        <v>5</v>
-      </c>
-      <c r="D31" t="s">
-        <v>6</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G31" t="s">
-        <v>39</v>
-      </c>
-      <c r="I31" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" ht="43" x14ac:dyDescent="0.5">
-      <c r="A32">
-        <v>6</v>
-      </c>
-      <c r="D32" t="s">
-        <v>6</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G32" t="s">
-        <v>40</v>
-      </c>
-      <c r="I32" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A33">
-        <v>7</v>
-      </c>
-      <c r="D33" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A34">
-        <v>8</v>
-      </c>
-      <c r="D34" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A35">
-        <v>9</v>
-      </c>
-      <c r="D35" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A36">
-        <v>10</v>
-      </c>
-      <c r="D36" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A37">
-        <v>11</v>
-      </c>
-      <c r="D37" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A38">
-        <v>12</v>
-      </c>
-      <c r="D38" t="s">
-        <v>6</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" ht="43" x14ac:dyDescent="0.5">
-      <c r="A39">
-        <v>13</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I39" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" ht="43" x14ac:dyDescent="0.5">
-      <c r="A40">
-        <v>14</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I40" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" ht="71.7" x14ac:dyDescent="0.5">
-      <c r="A41">
-        <v>15</v>
-      </c>
-      <c r="F41" s="2" t="s">
+      <c r="L47" t="s">
+        <v>14</v>
+      </c>
+      <c r="N47" s="4"/>
+    </row>
+    <row r="48" spans="2:14" ht="29" x14ac:dyDescent="0.35">
+      <c r="E48" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="N48" s="4"/>
+    </row>
+    <row r="49" spans="2:14" ht="29" x14ac:dyDescent="0.35">
+      <c r="E49" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="N49" s="4"/>
+    </row>
+    <row r="50" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B50">
+        <v>25.3</v>
+      </c>
+      <c r="D50" t="s">
+        <v>6</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="G50" t="s">
         <v>28</v>
       </c>
-      <c r="I41" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A42">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A43">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A44">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A45">
-        <v>19</v>
+      <c r="H50" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="I50" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="51" spans="2:14" ht="29" x14ac:dyDescent="0.35">
+      <c r="D51" t="s">
+        <v>6</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="G51" t="s">
+        <v>28</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="I51" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="52" spans="2:14" ht="29" x14ac:dyDescent="0.35">
+      <c r="D52" t="s">
+        <v>6</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="G52" t="s">
+        <v>28</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="I52" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="53" spans="2:14" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="D53" t="s">
+        <v>6</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="G53" t="s">
+        <v>28</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="I53" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="54" spans="2:14" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="D54" t="s">
+        <v>6</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="G54" t="s">
+        <v>28</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="I54" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="55" spans="2:14" ht="29" x14ac:dyDescent="0.35">
+      <c r="D55" t="s">
+        <v>6</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="56" spans="2:14" ht="29" x14ac:dyDescent="0.35">
+      <c r="D56" t="s">
+        <v>6</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="57" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="D57" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="D58" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="D59" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60" spans="2:14" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="E60" s="19"/>
+      <c r="F60" s="19"/>
+      <c r="H60" s="19"/>
+      <c r="I60" s="19"/>
+    </row>
+    <row r="61" spans="2:14" ht="29" x14ac:dyDescent="0.35">
+      <c r="B61">
+        <v>31.1</v>
+      </c>
+      <c r="D61" t="s">
+        <v>128</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="G61" t="s">
+        <v>14</v>
+      </c>
+      <c r="H61" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="I61" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="62" spans="2:14" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="E62" s="19"/>
+      <c r="F62" s="19"/>
+      <c r="H62" s="19"/>
+      <c r="I62" s="19"/>
+    </row>
+    <row r="63" spans="2:14" ht="29" x14ac:dyDescent="0.35">
+      <c r="B63">
+        <v>41.1</v>
+      </c>
+      <c r="D63" t="s">
+        <v>129</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="G63" t="s">
+        <v>136</v>
+      </c>
+      <c r="H63" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="I63" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="64" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="E64" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="G64" t="s">
+        <v>14</v>
+      </c>
+      <c r="H64" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="65" spans="2:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="E65" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="G65" t="s">
+        <v>14</v>
+      </c>
+      <c r="H65" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="66" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="E66" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="G66" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="67" spans="2:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="E67" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="G67" t="s">
+        <v>14</v>
+      </c>
+      <c r="H67" s="8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="68" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="E68" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="G68" t="s">
+        <v>14</v>
+      </c>
+      <c r="H68" s="8"/>
+    </row>
+    <row r="69" spans="2:9" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="E69" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="G69" t="s">
+        <v>14</v>
+      </c>
+      <c r="H69" s="8" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="70" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="E70" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="G70" t="s">
+        <v>14</v>
+      </c>
+      <c r="H70" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="71" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="E71" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="G71" t="s">
+        <v>14</v>
+      </c>
+      <c r="H71" s="8" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="72" spans="2:9" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="E72" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="H72" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="I72" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="73" spans="2:9" ht="58" x14ac:dyDescent="0.35">
+      <c r="E73" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="H73" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="I73" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="74" spans="2:9" ht="58" x14ac:dyDescent="0.35">
+      <c r="E74" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="H74" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="I74" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="77" spans="2:9" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="E77" s="19"/>
+      <c r="F77" s="19"/>
+      <c r="H77" s="19"/>
+      <c r="I77" s="19"/>
+    </row>
+    <row r="78" spans="2:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="B78">
+        <v>51.1</v>
+      </c>
+      <c r="D78" t="s">
+        <v>130</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="G78" t="s">
+        <v>136</v>
+      </c>
+      <c r="H78" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="I78" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="79" spans="2:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="E79" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="80" spans="2:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="E80" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="H80" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="I80" s="2" t="s">
+        <v>157</v>
       </c>
     </row>
   </sheetData>

--- a/App_test_logs.xlsx
+++ b/App_test_logs.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Preadmin\OneDrive - Telperian\Github\MetaToolEntry\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://presagia-my.sharepoint.com/personal/xjia_telperian_com/Documents/Github/MetaToolEntry/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{145FF1DB-C5BA-48E2-B1FC-61CED62AC782}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{145FF1DB-C5BA-48E2-B1FC-61CED62AC782}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3714E718-352D-4CE4-8CAE-30DE9C4285CE}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{F51B4368-EE33-4982-BF40-B1D646A43378}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="178">
   <si>
     <t>ID</t>
   </si>
@@ -604,6 +604,18 @@
   <si>
     <t xml:space="preserve">1. go back to tab 1
 2. duckdb works ok </t>
+  </si>
+  <si>
+    <t>save results</t>
+  </si>
+  <si>
+    <t>save button</t>
+  </si>
+  <si>
+    <t>1. hit save</t>
+  </si>
+  <si>
+    <t>1. no reponce</t>
   </si>
 </sst>
 </file>
@@ -1029,8 +1041,8 @@
   <dimension ref="A1:N80"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G74" sqref="G74"/>
+      <pane ySplit="1" topLeftCell="A72" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I74" sqref="I74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2460,6 +2472,9 @@
       </c>
     </row>
     <row r="64" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="D64" t="s">
+        <v>129</v>
+      </c>
       <c r="E64" s="2" t="s">
         <v>140</v>
       </c>
@@ -2474,6 +2489,9 @@
       </c>
     </row>
     <row r="65" spans="2:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="D65" t="s">
+        <v>129</v>
+      </c>
       <c r="E65" s="2" t="s">
         <v>140</v>
       </c>
@@ -2488,6 +2506,9 @@
       </c>
     </row>
     <row r="66" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="D66" t="s">
+        <v>129</v>
+      </c>
       <c r="E66" s="2" t="s">
         <v>141</v>
       </c>
@@ -2499,6 +2520,9 @@
       </c>
     </row>
     <row r="67" spans="2:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="D67" t="s">
+        <v>129</v>
+      </c>
       <c r="E67" s="2" t="s">
         <v>141</v>
       </c>
@@ -2513,6 +2537,9 @@
       </c>
     </row>
     <row r="68" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="D68" t="s">
+        <v>129</v>
+      </c>
       <c r="E68" s="2" t="s">
         <v>142</v>
       </c>
@@ -2525,6 +2552,9 @@
       <c r="H68" s="8"/>
     </row>
     <row r="69" spans="2:9" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="D69" t="s">
+        <v>129</v>
+      </c>
       <c r="E69" s="2" t="s">
         <v>142</v>
       </c>
@@ -2539,6 +2569,9 @@
       </c>
     </row>
     <row r="70" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="D70" t="s">
+        <v>129</v>
+      </c>
       <c r="E70" s="2" t="s">
         <v>150</v>
       </c>
@@ -2553,6 +2586,9 @@
       </c>
     </row>
     <row r="71" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="D71" t="s">
+        <v>129</v>
+      </c>
       <c r="E71" s="2" t="s">
         <v>158</v>
       </c>
@@ -2567,6 +2603,9 @@
       </c>
     </row>
     <row r="72" spans="2:9" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="D72" t="s">
+        <v>129</v>
+      </c>
       <c r="E72" s="2" t="s">
         <v>161</v>
       </c>
@@ -2581,6 +2620,9 @@
       </c>
     </row>
     <row r="73" spans="2:9" ht="58" x14ac:dyDescent="0.35">
+      <c r="D73" t="s">
+        <v>129</v>
+      </c>
       <c r="E73" s="2" t="s">
         <v>161</v>
       </c>
@@ -2595,6 +2637,9 @@
       </c>
     </row>
     <row r="74" spans="2:9" ht="58" x14ac:dyDescent="0.35">
+      <c r="D74" t="s">
+        <v>129</v>
+      </c>
       <c r="E74" s="2" t="s">
         <v>161</v>
       </c>
@@ -2606,6 +2651,23 @@
       </c>
       <c r="I74" s="2" t="s">
         <v>173</v>
+      </c>
+    </row>
+    <row r="75" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="D75" t="s">
+        <v>129</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="H75" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="I75" s="2" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="77" spans="2:9" s="11" customFormat="1" x14ac:dyDescent="0.35">

--- a/App_test_logs.xlsx
+++ b/App_test_logs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://presagia-my.sharepoint.com/personal/xjia_telperian_com/Documents/Github/MetaToolEntry/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{145FF1DB-C5BA-48E2-B1FC-61CED62AC782}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3714E718-352D-4CE4-8CAE-30DE9C4285CE}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="13_ncr:1_{145FF1DB-C5BA-48E2-B1FC-61CED62AC782}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B686FDFB-1EAF-411E-8B4A-139A9F9078CC}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{F51B4368-EE33-4982-BF40-B1D646A43378}"/>
+    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13866" xr2:uid="{F51B4368-EE33-4982-BF40-B1D646A43378}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="180">
   <si>
     <t>ID</t>
   </si>
@@ -616,6 +616,12 @@
   </si>
   <si>
     <t>1. no reponce</t>
+  </si>
+  <si>
+    <t>if RECIST save currectly</t>
+  </si>
+  <si>
+    <t>if response save currectly</t>
   </si>
 </sst>
 </file>
@@ -1038,28 +1044,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{555FF2D0-C6BF-430A-BA33-8F0900951C88}">
-  <dimension ref="A1:N80"/>
+  <dimension ref="A1:N82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A72" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I74" sqref="I74"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H81" sqref="H81"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="3" max="3" width="6.6328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.90625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.26953125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="6.64453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.87890625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.29296875" style="2" customWidth="1"/>
     <col min="6" max="6" width="30" style="2" customWidth="1"/>
-    <col min="7" max="7" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="35.26953125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="44.81640625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="16.81640625" customWidth="1"/>
-    <col min="11" max="12" width="9.90625" customWidth="1"/>
-    <col min="13" max="14" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.52734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="35.29296875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="44.8203125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="16.8203125" customWidth="1"/>
+    <col min="11" max="12" width="9.87890625" customWidth="1"/>
+    <col min="13" max="14" width="9.29296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1100,7 +1106,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B2" s="5">
         <v>1.1000000000000001</v>
       </c>
@@ -1132,7 +1138,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="5" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" s="5" customFormat="1" ht="43" x14ac:dyDescent="0.5">
       <c r="B3" s="5">
         <v>1.2</v>
       </c>
@@ -1164,7 +1170,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B4" s="5">
         <v>1.3</v>
       </c>
@@ -1196,7 +1202,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" s="5" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
       <c r="B5" s="5">
         <v>2.1</v>
       </c>
@@ -1228,7 +1234,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" s="5" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
       <c r="B6" s="5">
         <v>2.2000000000000002</v>
       </c>
@@ -1260,7 +1266,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:13" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" s="5" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
       <c r="B7" s="5">
         <v>2.2999999999999998</v>
       </c>
@@ -1292,7 +1298,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B8" s="5">
         <v>2.4</v>
       </c>
@@ -1318,7 +1324,7 @@
       <c r="K8"/>
       <c r="L8"/>
     </row>
-    <row r="9" spans="1:13" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" s="5" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
       <c r="B9" s="5">
         <v>3.1</v>
       </c>
@@ -1350,7 +1356,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:13" s="7" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" s="7" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
       <c r="B10" s="7" t="s">
         <v>65</v>
       </c>
@@ -1380,7 +1386,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B11" s="7" t="s">
         <v>119</v>
       </c>
@@ -1398,7 +1404,7 @@
       <c r="K11"/>
       <c r="L11"/>
     </row>
-    <row r="12" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.5">
       <c r="E12" s="10"/>
       <c r="F12" s="10"/>
       <c r="H12" s="10"/>
@@ -1407,7 +1413,7 @@
       <c r="K12" s="11"/>
       <c r="L12" s="11"/>
     </row>
-    <row r="13" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B13" s="5">
         <v>11</v>
       </c>
@@ -1439,7 +1445,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:13" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" s="5" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
       <c r="B14" s="5">
         <v>12.1</v>
       </c>
@@ -1471,7 +1477,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B15" s="5">
         <v>12.2</v>
       </c>
@@ -1503,7 +1509,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B16" s="5">
         <v>12.3</v>
       </c>
@@ -1535,7 +1541,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B17" s="5">
         <v>12.4</v>
       </c>
@@ -1567,7 +1573,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B18" s="5">
         <v>13</v>
       </c>
@@ -1599,7 +1605,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="2:14" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:14" s="7" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B19" s="7" t="s">
         <v>121</v>
       </c>
@@ -1617,13 +1623,13 @@
       <c r="K19"/>
       <c r="L19"/>
     </row>
-    <row r="20" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.5">
       <c r="E20" s="10"/>
       <c r="F20" s="10"/>
       <c r="H20" s="10"/>
       <c r="I20" s="10"/>
     </row>
-    <row r="21" spans="2:14" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:14" s="15" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B21" s="16" t="s">
         <v>122</v>
       </c>
@@ -1638,7 +1644,7 @@
       <c r="H21" s="18"/>
       <c r="I21" s="18"/>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.5">
       <c r="B22">
         <v>21.1</v>
       </c>
@@ -1671,7 +1677,7 @@
       </c>
       <c r="N22" s="4"/>
     </row>
-    <row r="23" spans="2:14" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:14" ht="43" x14ac:dyDescent="0.5">
       <c r="B23">
         <v>21.2</v>
       </c>
@@ -1704,7 +1710,7 @@
       </c>
       <c r="N23" s="4"/>
     </row>
-    <row r="24" spans="2:14" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:14" ht="16" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B24">
         <v>21.3</v>
       </c>
@@ -1737,7 +1743,7 @@
       </c>
       <c r="N24" s="4"/>
     </row>
-    <row r="25" spans="2:14" s="12" customFormat="1" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:14" s="12" customFormat="1" ht="28.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B25" s="12">
         <v>22.1</v>
       </c>
@@ -1761,7 +1767,7 @@
       </c>
       <c r="N25" s="14"/>
     </row>
-    <row r="26" spans="2:14" s="12" customFormat="1" ht="62" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:14" s="12" customFormat="1" ht="62" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B26" s="12">
         <v>22.2</v>
       </c>
@@ -1785,7 +1791,7 @@
       </c>
       <c r="N26" s="14"/>
     </row>
-    <row r="27" spans="2:14" s="12" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:14" s="12" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B27" s="12">
         <v>22.3</v>
       </c>
@@ -1809,7 +1815,7 @@
       </c>
       <c r="N27" s="14"/>
     </row>
-    <row r="28" spans="2:14" s="12" customFormat="1" ht="67.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:14" s="12" customFormat="1" ht="67.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B28" s="12">
         <v>22.4</v>
       </c>
@@ -1833,7 +1839,7 @@
       </c>
       <c r="N28" s="14"/>
     </row>
-    <row r="29" spans="2:14" s="12" customFormat="1" ht="31.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:14" s="12" customFormat="1" ht="31.45" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B29" s="12">
         <v>22.5</v>
       </c>
@@ -1857,7 +1863,7 @@
       </c>
       <c r="N29" s="14"/>
     </row>
-    <row r="30" spans="2:14" s="12" customFormat="1" ht="57.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:14" s="12" customFormat="1" ht="57.45" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B30" s="12">
         <v>22.6</v>
       </c>
@@ -1881,7 +1887,7 @@
       </c>
       <c r="N30" s="14"/>
     </row>
-    <row r="31" spans="2:14" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:14" s="5" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
       <c r="B31" s="5">
         <v>23.1</v>
       </c>
@@ -1913,7 +1919,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="32" spans="2:14" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:14" s="5" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
       <c r="B32" s="5">
         <v>23.2</v>
       </c>
@@ -1945,7 +1951,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="33" spans="2:14" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:14" s="5" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
       <c r="B33" s="5">
         <v>23.3</v>
       </c>
@@ -1977,7 +1983,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="34" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B34" s="5">
         <v>23.4</v>
       </c>
@@ -2009,7 +2015,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="35" spans="2:14" ht="25.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:14" ht="25.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B35" s="5">
         <v>23.5</v>
       </c>
@@ -2042,7 +2048,7 @@
       </c>
       <c r="N35" s="4"/>
     </row>
-    <row r="36" spans="2:14" ht="49" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:14" ht="49" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B36" s="5">
         <v>23.6</v>
       </c>
@@ -2066,7 +2072,7 @@
       </c>
       <c r="N36" s="4"/>
     </row>
-    <row r="37" spans="2:14" ht="44.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:14" ht="44.45" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B37" s="5">
         <v>23.7</v>
       </c>
@@ -2090,15 +2096,15 @@
       </c>
       <c r="N37" s="4"/>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.5">
       <c r="E38"/>
       <c r="N38" s="4"/>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.5">
       <c r="E39"/>
       <c r="N39" s="4"/>
     </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:14" x14ac:dyDescent="0.5">
       <c r="B40">
         <v>24.1</v>
       </c>
@@ -2122,7 +2128,7 @@
       </c>
       <c r="N40" s="4"/>
     </row>
-    <row r="41" spans="2:14" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:14" ht="71.7" x14ac:dyDescent="0.5">
       <c r="B41">
         <v>24.2</v>
       </c>
@@ -2143,7 +2149,7 @@
       </c>
       <c r="N41" s="4"/>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.5">
       <c r="B42">
         <v>24.3</v>
       </c>
@@ -2164,7 +2170,7 @@
       </c>
       <c r="N42" s="4"/>
     </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.5">
       <c r="B43">
         <v>24.4</v>
       </c>
@@ -2185,7 +2191,7 @@
       </c>
       <c r="N43" s="4"/>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.5">
       <c r="B44">
         <v>24.5</v>
       </c>
@@ -2206,14 +2212,14 @@
       </c>
       <c r="N44" s="4"/>
     </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.5">
       <c r="E45"/>
       <c r="G45" t="s">
         <v>14</v>
       </c>
       <c r="N45" s="4"/>
     </row>
-    <row r="46" spans="2:14" ht="29" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.5">
       <c r="B46">
         <v>25.1</v>
       </c>
@@ -2228,7 +2234,7 @@
       </c>
       <c r="N46" s="4"/>
     </row>
-    <row r="47" spans="2:14" ht="29" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:14" ht="28.7" x14ac:dyDescent="0.5">
       <c r="B47">
         <v>25.2</v>
       </c>
@@ -2261,7 +2267,7 @@
       </c>
       <c r="N47" s="4"/>
     </row>
-    <row r="48" spans="2:14" ht="29" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:14" ht="28.7" x14ac:dyDescent="0.5">
       <c r="E48" s="2" t="s">
         <v>94</v>
       </c>
@@ -2270,7 +2276,7 @@
       </c>
       <c r="N48" s="4"/>
     </row>
-    <row r="49" spans="2:14" ht="29" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:14" x14ac:dyDescent="0.5">
       <c r="E49" s="2" t="s">
         <v>94</v>
       </c>
@@ -2279,7 +2285,7 @@
       </c>
       <c r="N49" s="4"/>
     </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:14" x14ac:dyDescent="0.5">
       <c r="B50">
         <v>25.3</v>
       </c>
@@ -2302,7 +2308,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="51" spans="2:14" ht="29" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:14" x14ac:dyDescent="0.5">
       <c r="D51" t="s">
         <v>6</v>
       </c>
@@ -2322,7 +2328,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="52" spans="2:14" ht="29" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:14" x14ac:dyDescent="0.5">
       <c r="D52" t="s">
         <v>6</v>
       </c>
@@ -2342,7 +2348,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="53" spans="2:14" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:14" ht="43" x14ac:dyDescent="0.5">
       <c r="D53" t="s">
         <v>6</v>
       </c>
@@ -2362,7 +2368,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="54" spans="2:14" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:14" ht="71.7" x14ac:dyDescent="0.5">
       <c r="D54" t="s">
         <v>6</v>
       </c>
@@ -2382,7 +2388,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="55" spans="2:14" ht="29" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:14" ht="28.7" x14ac:dyDescent="0.5">
       <c r="D55" t="s">
         <v>6</v>
       </c>
@@ -2393,7 +2399,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="56" spans="2:14" ht="29" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:14" ht="28.7" x14ac:dyDescent="0.5">
       <c r="D56" t="s">
         <v>6</v>
       </c>
@@ -2404,28 +2410,28 @@
         <v>167</v>
       </c>
     </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:14" x14ac:dyDescent="0.5">
       <c r="D57" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="58" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:14" x14ac:dyDescent="0.5">
       <c r="D58" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:14" x14ac:dyDescent="0.5">
       <c r="D59" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="60" spans="2:14" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:14" s="11" customFormat="1" x14ac:dyDescent="0.5">
       <c r="E60" s="19"/>
       <c r="F60" s="19"/>
       <c r="H60" s="19"/>
       <c r="I60" s="19"/>
     </row>
-    <row r="61" spans="2:14" ht="29" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:14" ht="28.7" x14ac:dyDescent="0.5">
       <c r="B61">
         <v>31.1</v>
       </c>
@@ -2445,13 +2451,13 @@
         <v>134</v>
       </c>
     </row>
-    <row r="62" spans="2:14" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:14" s="11" customFormat="1" x14ac:dyDescent="0.5">
       <c r="E62" s="19"/>
       <c r="F62" s="19"/>
       <c r="H62" s="19"/>
       <c r="I62" s="19"/>
     </row>
-    <row r="63" spans="2:14" ht="29" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:14" ht="28.7" x14ac:dyDescent="0.5">
       <c r="B63">
         <v>41.1</v>
       </c>
@@ -2471,7 +2477,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="64" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:14" x14ac:dyDescent="0.5">
       <c r="D64" t="s">
         <v>129</v>
       </c>
@@ -2488,7 +2494,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="65" spans="2:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:9" ht="28.7" x14ac:dyDescent="0.5">
       <c r="D65" t="s">
         <v>129</v>
       </c>
@@ -2505,7 +2511,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:9" x14ac:dyDescent="0.5">
       <c r="D66" t="s">
         <v>129</v>
       </c>
@@ -2519,7 +2525,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="67" spans="2:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:9" ht="28.7" x14ac:dyDescent="0.5">
       <c r="D67" t="s">
         <v>129</v>
       </c>
@@ -2536,7 +2542,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:9" x14ac:dyDescent="0.5">
       <c r="D68" t="s">
         <v>129</v>
       </c>
@@ -2551,7 +2557,7 @@
       </c>
       <c r="H68" s="8"/>
     </row>
-    <row r="69" spans="2:9" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:9" ht="43" x14ac:dyDescent="0.5">
       <c r="D69" t="s">
         <v>129</v>
       </c>
@@ -2568,7 +2574,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:9" x14ac:dyDescent="0.5">
       <c r="D70" t="s">
         <v>129</v>
       </c>
@@ -2585,7 +2591,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:9" x14ac:dyDescent="0.5">
       <c r="D71" t="s">
         <v>129</v>
       </c>
@@ -2602,7 +2608,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="72" spans="2:9" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:9" ht="43" x14ac:dyDescent="0.5">
       <c r="D72" t="s">
         <v>129</v>
       </c>
@@ -2619,7 +2625,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="73" spans="2:9" ht="58" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:9" ht="57.35" x14ac:dyDescent="0.5">
       <c r="D73" t="s">
         <v>129</v>
       </c>
@@ -2636,7 +2642,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="74" spans="2:9" ht="58" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:9" ht="57.35" x14ac:dyDescent="0.5">
       <c r="D74" t="s">
         <v>129</v>
       </c>
@@ -2653,7 +2659,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:9" x14ac:dyDescent="0.5">
       <c r="D75" t="s">
         <v>129</v>
       </c>
@@ -2670,13 +2676,13 @@
         <v>177</v>
       </c>
     </row>
-    <row r="77" spans="2:9" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:9" s="11" customFormat="1" x14ac:dyDescent="0.5">
       <c r="E77" s="19"/>
       <c r="F77" s="19"/>
       <c r="H77" s="19"/>
       <c r="I77" s="19"/>
     </row>
-    <row r="78" spans="2:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:9" ht="28.7" x14ac:dyDescent="0.5">
       <c r="B78">
         <v>51.1</v>
       </c>
@@ -2699,12 +2705,12 @@
         <v>139</v>
       </c>
     </row>
-    <row r="79" spans="2:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:9" ht="28.7" x14ac:dyDescent="0.5">
       <c r="E79" s="2" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="80" spans="2:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:9" ht="28.7" x14ac:dyDescent="0.5">
       <c r="E80" s="2" t="s">
         <v>153</v>
       </c>
@@ -2716,6 +2722,16 @@
       </c>
       <c r="I80" s="2" t="s">
         <v>157</v>
+      </c>
+    </row>
+    <row r="81" spans="5:5" x14ac:dyDescent="0.5">
+      <c r="E81" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="82" spans="5:5" x14ac:dyDescent="0.5">
+      <c r="E82" s="2" t="s">
+        <v>179</v>
       </c>
     </row>
   </sheetData>
